--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E7FAE4-D440-44AF-9B10-C2E3D9ADD938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEEDF11-2D97-4AC3-BA07-BC463B3811C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,21 +44,9 @@
     <t xml:space="preserve">Categoria </t>
   </si>
   <si>
-    <t>Posición</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atleta </t>
   </si>
   <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <t>Plata</t>
-  </si>
-  <si>
-    <t>Bronce</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puntos </t>
   </si>
   <si>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t>60kg</t>
+  </si>
+  <si>
+    <t>Oros</t>
+  </si>
+  <si>
+    <t>Platas</t>
+  </si>
+  <si>
+    <t>Bronces</t>
+  </si>
+  <si>
+    <t>Posicion</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,25 +458,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEEDF11-2D97-4AC3-BA07-BC463B3811C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F00898-7E70-401E-BCA4-CFB0A49CC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,29 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t xml:space="preserve">Categoria </t>
   </si>
   <si>
-    <t xml:space="preserve">Atleta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puntos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50kg </t>
-  </si>
-  <si>
-    <t>60kg</t>
-  </si>
-  <si>
     <t>Oros</t>
   </si>
   <si>
@@ -66,13 +48,64 @@
   </si>
   <si>
     <t>Posicion</t>
+  </si>
+  <si>
+    <t>Atleta</t>
+  </si>
+  <si>
+    <t>Javier Gonzalez</t>
+  </si>
+  <si>
+    <t>Cesar Quintero</t>
+  </si>
+  <si>
+    <t>Laura Tique</t>
+  </si>
+  <si>
+    <t>Karen Vanegas</t>
+  </si>
+  <si>
+    <t>Leonardo Rivera</t>
+  </si>
+  <si>
+    <t>Evin Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Correa </t>
+  </si>
+  <si>
+    <t>Oscar Torralva</t>
+  </si>
+  <si>
+    <t>Tania Cardenas</t>
+  </si>
+  <si>
+    <t>Tristan Otero</t>
+  </si>
+  <si>
+    <t>Gabriela Alvarado</t>
+  </si>
+  <si>
+    <t>Joel Sanchez</t>
+  </si>
+  <si>
+    <t>Alejandro Beltran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayores </t>
+  </si>
+  <si>
+    <t>Juvenil</t>
+  </si>
+  <si>
+    <t>Junior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +117,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,19 +152,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,97 +465,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
